--- a/formatted/candidates/candidates-1/documents/candidates-documents-stcw.xlsx
+++ b/formatted/candidates/candidates-1/documents/candidates-documents-stcw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-1/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00845F13-FD64-9543-BE48-1DA189558AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D657F5-53E7-B143-80DF-392C5D0280F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="6540" windowWidth="41820" windowHeight="23380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6985,7 +6985,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E293" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
